--- a/2_semester/DataBase/Импорт данных/Клиент.xlsx
+++ b/2_semester/DataBase/Импорт данных/Клиент.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course2\2_semester\DataBase\Импорт данных\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54916146-4490-422A-8880-7D527A8D1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Клиент" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Буркова Юоий</t>
   </si>
@@ -31,81 +50,54 @@
     <t>Полевщикова Диана Родионовна </t>
   </si>
   <si>
-    <t>8-154-586-92-42</t>
-  </si>
-  <si>
     <t>11morozov11@rambler.ru</t>
   </si>
   <si>
     <t>Кочинян Константин Федорович </t>
   </si>
   <si>
-    <t>8-434-585-96-83</t>
-  </si>
-  <si>
     <t>12sdaa222@mail.ru</t>
   </si>
   <si>
     <t>Жаворонков Андрей Демьянович </t>
   </si>
   <si>
-    <t>9:154:385:74:68</t>
-  </si>
-  <si>
     <t>12222@mail.ru</t>
   </si>
   <si>
     <t>Якубович Тарас Святославович </t>
   </si>
   <si>
-    <t>8:154:586:92:42</t>
-  </si>
-  <si>
     <t>1234444@mail.ru</t>
   </si>
   <si>
     <t>Чазов Всеволод Серафимович </t>
   </si>
   <si>
-    <t>9(154)385-74-68</t>
-  </si>
-  <si>
     <t>ar.batyuta2012@yandex.ru</t>
   </si>
   <si>
     <t>Валеева Ариадна Потаповна </t>
   </si>
   <si>
-    <t>9(206)548-65-85</t>
-  </si>
-  <si>
     <t>arammal@mail.ua</t>
   </si>
   <si>
     <t>Шеншина Лиана Ильевна </t>
   </si>
   <si>
-    <t>3(806)371-01-36</t>
-  </si>
-  <si>
     <t>aramam1213al@mail.ua</t>
   </si>
   <si>
     <t>Таланова Ариадна Филипповна </t>
   </si>
   <si>
-    <t>3;806;381;16;91</t>
-  </si>
-  <si>
     <t>zgets@rambler.ru</t>
   </si>
   <si>
     <t>Барков Эрнест Кондратиевич </t>
   </si>
   <si>
-    <t>"+3(806)391-37-49</t>
-  </si>
-  <si>
     <t>Zheka1996171@yandex.ru</t>
   </si>
   <si>
@@ -118,351 +110,234 @@
     <t>Кропанин Зиновий Проклович </t>
   </si>
   <si>
-    <t>4(973)133-06-66</t>
-  </si>
-  <si>
     <t>zhen.zhenya2013@yandex.ru</t>
   </si>
   <si>
     <t>Подкользина Раиса Кузьмевна </t>
   </si>
   <si>
-    <t>"+7-(101)-157-82-51</t>
-  </si>
-  <si>
     <t>wot_akk_091@mail.ru</t>
   </si>
   <si>
     <t>Яблочкина Каролина Филипповна </t>
   </si>
   <si>
-    <t>"+74535345455</t>
-  </si>
-  <si>
     <t>wot_game26@ukr.net</t>
   </si>
   <si>
     <t>Чуканова Ярослава Кузьмевна </t>
   </si>
   <si>
-    <t>"+74912510015</t>
-  </si>
-  <si>
     <t>wot_jeff@mail.ru</t>
   </si>
   <si>
     <t>Стрелков Егор</t>
   </si>
   <si>
-    <t>"+1543857461</t>
-  </si>
-  <si>
     <t>wot_tanks_wot@bk.ru</t>
   </si>
   <si>
     <t>Ожегов Наум Адамович </t>
   </si>
   <si>
-    <t>8 6 9 2 1 2 0 0 4 1</t>
-  </si>
-  <si>
     <t>nighthawk@live.com</t>
   </si>
   <si>
     <t>Масмехова Ефросиния Данилевна </t>
   </si>
   <si>
-    <t>7-5-4-1-4-6-9-3-4-9</t>
-  </si>
-  <si>
     <t>gumpish@comcast.net</t>
   </si>
   <si>
     <t>Блинова Дина Карповна </t>
   </si>
   <si>
-    <t>7 7 5 0 4 7 6 9 6 1</t>
-  </si>
-  <si>
     <t>kingjoshi@icloud.com</t>
   </si>
   <si>
     <t>Костомаров Венедикт Вадимович </t>
   </si>
   <si>
-    <t>9-8-3-4-8-2-1-5-4-3</t>
-  </si>
-  <si>
     <t>specprog@outlook.com</t>
   </si>
   <si>
     <t>Янишевский Эрнст Архипович </t>
   </si>
   <si>
-    <t>4-3-9-4-5-1-3-8-7-5</t>
-  </si>
-  <si>
     <t>subir@yahoo.com</t>
   </si>
   <si>
     <t>Лапухова Альбина Иларионовна </t>
   </si>
   <si>
-    <t>6 0 8 6 8 9 4 6 1 0</t>
-  </si>
-  <si>
     <t>fmerges@live.com</t>
   </si>
   <si>
     <t>Козина Антонина Романовна </t>
   </si>
   <si>
-    <t>8-5-6-7-0-7-7-2-8-5</t>
-  </si>
-  <si>
     <t>crandall@live.com</t>
   </si>
   <si>
     <t>Бутылин Зиновий Гаврилевич </t>
   </si>
   <si>
-    <t>8-3-1-1-9-1-5-5-7-4</t>
-  </si>
-  <si>
     <t>pierce@gmail.com</t>
   </si>
   <si>
     <t>Панькив Геннадий Эмилевич </t>
   </si>
   <si>
-    <t>"9-2-3-5-2-3-1-1-8-1</t>
-  </si>
-  <si>
     <t>jpflip@outlook.com</t>
   </si>
   <si>
     <t>Пичугина Ираида Казимировна </t>
   </si>
   <si>
-    <t>6-5-3-8-8-0-5-1-4-6</t>
-  </si>
-  <si>
     <t>denton@outlook.com</t>
   </si>
   <si>
     <t>Губанова Ефросиния Александровна </t>
   </si>
   <si>
-    <t>"7-2-5-4-7-0-2-1-5-2</t>
-  </si>
-  <si>
     <t>ateniese@outlook.com</t>
   </si>
   <si>
     <t>Луковникова Дина Всеволодовна </t>
   </si>
   <si>
-    <t>4 6 3 3 5 5 4 0 6 6</t>
-  </si>
-  <si>
     <t>lishoy@live.com</t>
   </si>
   <si>
     <t>Щурова Стела Елисеевна </t>
   </si>
   <si>
-    <t>8-6-6-7-1-3-4-0-6-9</t>
-  </si>
-  <si>
     <t>wsnyder@live.com</t>
   </si>
   <si>
     <t>Сухарев Гаврила Федосиевич </t>
   </si>
   <si>
-    <t>3-4-1-0-7-5-1-9-7-6</t>
-  </si>
-  <si>
     <t>bachmann@yahoo.com</t>
   </si>
   <si>
     <t>Ратникова Эдуард</t>
   </si>
   <si>
-    <t>"4-0-6-4-4-5-0-6-4-9</t>
-  </si>
-  <si>
     <t>sravani@sbcglobal.net</t>
   </si>
   <si>
     <t>Канунникова Христина Олеговна </t>
   </si>
   <si>
-    <t>0-3-8-8-9-8-8-7-5-6</t>
-  </si>
-  <si>
     <t>uraeus@att.net</t>
   </si>
   <si>
     <t>Коршунова Тамара Феликсовна </t>
   </si>
   <si>
-    <t>7 3 9 2 4 7 8 8 7 9</t>
-  </si>
-  <si>
     <t>godeke@aol.com</t>
   </si>
   <si>
     <t>Кондучалова Милена Казимировна </t>
   </si>
   <si>
-    <t>2 1 6 0 7 8 8 0 9 5</t>
-  </si>
-  <si>
     <t>storerm@mac.com</t>
   </si>
   <si>
     <t>Рубашкина Светлана Павеловна </t>
   </si>
   <si>
-    <t>4-3-7-1-9-6-3-0-9-1</t>
-  </si>
-  <si>
     <t>staffelb@gmail.com</t>
   </si>
   <si>
     <t>Арсеньева Вероника Александровна </t>
   </si>
   <si>
-    <t>2 3 3 5 2 1 2 8 5 2</t>
-  </si>
-  <si>
     <t>cgarcia@aol.com</t>
   </si>
   <si>
     <t>Подоров Борислав Георгиевич </t>
   </si>
   <si>
-    <t>0-0-6-2-8-1-0-8-4-6</t>
-  </si>
-  <si>
     <t>hllam@gmail.com</t>
   </si>
   <si>
     <t>Просвирнина Ефросинья Николаевна </t>
   </si>
   <si>
-    <t>9-8-5-4-3-8-2-5-6-9</t>
-  </si>
-  <si>
     <t>presoff@sbcglobal.net</t>
   </si>
   <si>
     <t>Цыцын Парфен Адамович </t>
   </si>
   <si>
-    <t>2-9-2-7-2-6-7-7-1-0</t>
-  </si>
-  <si>
     <t>frosal@me.com</t>
   </si>
   <si>
     <t>Дедова Светлана Яновна </t>
   </si>
   <si>
-    <t>"5-3-6-4-7-7-1-0-1-6</t>
-  </si>
-  <si>
     <t>matty@msn.com</t>
   </si>
   <si>
     <t>Игнаткович Пахом Ильевич </t>
   </si>
   <si>
-    <t>"5-4-5-9-7-7-3-5-9-5</t>
-  </si>
-  <si>
     <t>fudrucker@sbcglobal.net</t>
   </si>
   <si>
     <t>Марьина Рада Игнатиевна </t>
   </si>
   <si>
-    <t>1-8-7-9-1-9-3-1-7-4</t>
-  </si>
-  <si>
     <t>matthijs@me.com</t>
   </si>
   <si>
     <t>Распутина Стела Германовна </t>
   </si>
   <si>
-    <t>"3-3-2-7-8-1-4-4-5-8</t>
-  </si>
-  <si>
     <t>paulv@aol.com</t>
   </si>
   <si>
     <t>Русаков Елизар Геннадиевич </t>
   </si>
   <si>
-    <t>8 3 8 2 2 9 9 3 6 0</t>
-  </si>
-  <si>
     <t>biglou@yahoo.ca</t>
   </si>
   <si>
     <t>Оськин Емельян Яковович </t>
   </si>
   <si>
-    <t>6 1 8 7 7 6 2 7 0 9</t>
-  </si>
-  <si>
     <t>sartak@gmail.com</t>
   </si>
   <si>
     <t>Капылюшный Карл Викентиевич </t>
   </si>
   <si>
-    <t>9-0-1-6-9-9-2-0-5-9</t>
-  </si>
-  <si>
     <t>ournews@yahoo.com</t>
   </si>
   <si>
     <t>Бебнева Екатерина Алексеевна </t>
   </si>
   <si>
-    <t>8 0 3 0 9 6 4 1 3 8</t>
-  </si>
-  <si>
     <t>sjava@msn.com</t>
   </si>
   <si>
     <t>Дубинкин Константин Касьянович </t>
   </si>
   <si>
-    <t>5 3 8 3 6 7 5 2 8 5</t>
-  </si>
-  <si>
     <t>scitext@hotmail.com</t>
   </si>
   <si>
     <t>Щеголяева Павел</t>
   </si>
   <si>
-    <t>3 7 4 6 9 8 8 2 2 0</t>
-  </si>
-  <si>
     <t>giafly@sbcglobal.net</t>
   </si>
   <si>
     <t>Курчатова Анисья Степановна </t>
   </si>
   <si>
-    <t>5 1 8 2 8 0 4 1 2 3</t>
-  </si>
-  <si>
     <t>bryanw@live.com</t>
   </si>
   <si>
@@ -476,13 +351,34 @@
   </si>
   <si>
     <t>Номер</t>
+  </si>
+  <si>
+    <t>8692120041</t>
+  </si>
+  <si>
+    <t>7750476961</t>
+  </si>
+  <si>
+    <t>6086894610</t>
+  </si>
+  <si>
+    <t>4633554066</t>
+  </si>
+  <si>
+    <t>7392478879</t>
+  </si>
+  <si>
+    <t>2160788095</t>
+  </si>
+  <si>
+    <t>2335212852</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -493,6 +389,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -516,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -529,12 +433,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -735,17 +648,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="7"/>
     <col min="2" max="2" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -753,21 +666,21 @@
     <col min="4" max="4" width="26.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -781,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -795,690 +708,690 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>81545869242</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>84345859683</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>91543857468</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81545869242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>91543857468</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>92065486585</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38063710136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38063811691</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38063913749</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>38063710136</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>49731330666</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>71011578251</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>74535345455</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>74912510015</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1543857461</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7541469349</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9834821543</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4394513875</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8567077285</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8311915574</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9235231181</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6538805146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7254702152</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8667134069</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3410751976</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4064450649</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="C34" s="1">
+        <v>388988756</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4371963091</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="1">
+        <v>62810846</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9854382569</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2927267710</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5364771016</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5459773595</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1879193174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3327814458</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>88</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8382299360</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6187762709</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9016992059</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>94</v>
+      </c>
+      <c r="C49" s="1">
+        <v>8030964138</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>142</v>
+        <v>96</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5383675285</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3746988220</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5182804123</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/2_semester/DataBase/Импорт данных/Клиент.xlsx
+++ b/2_semester/DataBase/Импорт данных/Клиент.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course2\2_semester\DataBase\Импорт данных\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54916146-4490-422A-8880-7D527A8D1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Клиент" sheetId="1" r:id="rId1"/>
+    <sheet name="Клиент" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Буркова Юоий</t>
   </si>
@@ -350,35 +344,14 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>8692120041</t>
-  </si>
-  <si>
-    <t>7750476961</t>
-  </si>
-  <si>
-    <t>6086894610</t>
-  </si>
-  <si>
-    <t>4633554066</t>
-  </si>
-  <si>
-    <t>7392478879</t>
-  </si>
-  <si>
-    <t>2160788095</t>
-  </si>
-  <si>
-    <t>2335212852</t>
+    <t>ID_Клиента</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -420,20 +393,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -648,746 +622,742 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="7"/>
-    <col min="2" max="2" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>21312312312</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>21312232312</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>81545869242</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>84345859683</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>91543857468</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>81545869242</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>91543857468</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>92065486585</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>38063710136</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>38063811691</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>38063913749</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>38063710136</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>49731330666</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>71011578251</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>74535345455</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>74912510015</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>1543857461</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>106</v>
+      <c r="C19" s="3">
+        <v>8692120041</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
         <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>7541469349</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>107</v>
+      <c r="C21" s="3">
+        <v>7750476961</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
         <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>9834821543</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
         <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>4394513875</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
         <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>108</v>
+      <c r="C24" s="3">
+        <v>6086894610</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
         <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>8567077285</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
         <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>8311915574</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
         <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>9235231181</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
         <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>6538805146</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
         <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>7254702152</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
         <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>109</v>
+      <c r="C30" s="3">
+        <v>4633554066</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
         <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>8667134069</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
         <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>3410751976</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
         <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="6">
         <v>4064450649</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
         <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="6">
         <v>388988756</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
         <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>110</v>
+      <c r="C35" s="3">
+        <v>7392478879</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
         <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>111</v>
+      <c r="C36" s="3">
+        <v>2160788095</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
         <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <v>4371963091</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
         <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>112</v>
+      <c r="C38" s="3">
+        <v>2335212852</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
         <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <v>62810846</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
         <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <v>9854382569</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
         <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <v>2927267710</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
         <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>5364771016</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
         <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="6">
         <v>5459773595</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
         <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="6">
         <v>1879193174</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
         <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6">
         <v>3327814458</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
         <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="3">
         <v>8382299360</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
         <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <v>6187762709</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
         <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <v>9016992059</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
         <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <v>8030964138</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="6">
         <v>5383675285</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
         <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="6">
         <v>3746988220</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
         <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="6">
         <v>5182804123</v>
       </c>
       <c r="D52" s="1" t="s">
